--- a/开发计划.xlsx
+++ b/开发计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>人事档案</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,6 +128,83 @@
   <si>
     <t>工单自动分配</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计量单位</t>
+  </si>
+  <si>
+    <t>商品类别</t>
+  </si>
+  <si>
+    <t>供应商登记</t>
+  </si>
+  <si>
+    <t>仓库登记</t>
+  </si>
+  <si>
+    <t>商品资料及异价</t>
+  </si>
+  <si>
+    <t>仓库初始化登记</t>
+  </si>
+  <si>
+    <t>库存报警设置</t>
+  </si>
+  <si>
+    <t>库存管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购进货单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购进货单管理</t>
+  </si>
+  <si>
+    <t>库存调拨单</t>
+  </si>
+  <si>
+    <t>调拨单管理</t>
+  </si>
+  <si>
+    <t>采购退货单</t>
+  </si>
+  <si>
+    <t>采购退货单管理</t>
+  </si>
+  <si>
+    <t>库存盘点</t>
+  </si>
+  <si>
+    <t>盘点单管理</t>
+  </si>
+  <si>
+    <t>商品销售管理</t>
+  </si>
+  <si>
+    <t>报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存明细</t>
+  </si>
+  <si>
+    <t>商品成本及毛利明细</t>
+  </si>
+  <si>
+    <t>按类别进行统计</t>
+  </si>
+  <si>
+    <t>库存报警明细</t>
   </si>
 </sst>
 </file>
@@ -160,7 +237,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,6 +247,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -188,7 +271,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -196,6 +279,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -492,220 +578,350 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="1" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" s="3" customFormat="1"/>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="D4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="D5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
+      <c r="D6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="C36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="C42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="C43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="C45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="3" customFormat="1"/>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
         <v>16</v>
       </c>
-      <c r="B8">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="D49">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
         <v>17</v>
       </c>
-      <c r="B9">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="D50">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
         <v>20</v>
       </c>
-      <c r="B10">
+      <c r="D51">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
         <v>18</v>
       </c>
-      <c r="B11">
+      <c r="D52">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
         <v>19</v>
       </c>
-      <c r="B12">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="D53">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
         <v>21</v>
       </c>
-      <c r="B13">
+      <c r="D54">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
         <v>22</v>
       </c>
-      <c r="B14">
+      <c r="D55">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
         <v>23</v>
       </c>
-      <c r="B15">
+      <c r="D56">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
         <v>24</v>
       </c>
-      <c r="B16">
+      <c r="D57">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
         <v>25</v>
       </c>
-      <c r="B17">
+      <c r="D58">
         <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
